--- a/medicine/Psychotrope/Brasserie_Ekers/Brasserie_Ekers.xlsx
+++ b/medicine/Psychotrope/Brasserie_Ekers/Brasserie_Ekers.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,15 +490,17 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La brasserie Ekers, fondée en 1853, était un producteur de bière de Montréal[1]. Ses bâtiments sont érigés en 1894 sur le boulevard Saint-Laurent. En 1909, elle fusionne avec la Brasserie Dawes qui sera acheté en 1952 par Dow.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La brasserie Ekers, fondée en 1853, était un producteur de bière de Montréal. Ses bâtiments sont érigés en 1894 sur le boulevard Saint-Laurent. En 1909, elle fusionne avec la Brasserie Dawes qui sera acheté en 1952 par Dow.
 			1894
 			Boul. Saint-Laurent vers 1900
 			Amber Ale
-Ses bâtiments sont entièrement rénovés dans les années 1990 pour abriter le Musée Juste pour rire, de 1993 à 2010[2].
-Le bâtiment du nord (2115, boulevard Saint-Laurent) est acheté par DevMcGill pour y construire les condos St-Dominique[3].
-Le bâtiment du sud (2111, boulevard Saint-Laurent) est acheté en décembre 2013 par Les 7 doigts de la main pour accueillir, en 2016, leur Centre de création et de production[4].
+Ses bâtiments sont entièrement rénovés dans les années 1990 pour abriter le Musée Juste pour rire, de 1993 à 2010.
+Le bâtiment du nord (2115, boulevard Saint-Laurent) est acheté par DevMcGill pour y construire les condos St-Dominique.
+Le bâtiment du sud (2111, boulevard Saint-Laurent) est acheté en décembre 2013 par Les 7 doigts de la main pour accueillir, en 2016, leur Centre de création et de production.
 </t>
         </is>
       </c>
